--- a/fuentes/contenidos/grado10/guion02/Solicitud_grAfica_MA_10_02_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado10/guion02/Solicitud_grAfica_MA_10_02_CO_REC30.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="194">
   <si>
     <t>Fecha:</t>
   </si>
@@ -600,6 +600,15 @@
   </si>
   <si>
     <t>MA_10_02_REC30</t>
+  </si>
+  <si>
+    <t>Línea del ángulo con la flecha hacia arriba</t>
+  </si>
+  <si>
+    <t>Línea del ángulo con la flecha hacia abajo</t>
+  </si>
+  <si>
+    <t>línea del ángulo con la flecha hacia arriba</t>
   </si>
 </sst>
 </file>
@@ -2809,8 +2818,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3131,7 +3140,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
+      <c r="K10" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
@@ -3172,7 +3183,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="K11" s="65" t="s">
+        <v>192</v>
+      </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
@@ -3213,7 +3226,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
+      <c r="K12" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
@@ -3254,7 +3269,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
+      <c r="K13" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
@@ -3295,7 +3312,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="K14" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
@@ -3336,7 +3355,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="K15" s="66" t="s">
+        <v>192</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
@@ -3377,7 +3398,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
+      <c r="K16" s="68" t="s">
+        <v>193</v>
+      </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
@@ -3418,7 +3441,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+      <c r="K17" s="66" t="s">
+        <v>192</v>
+      </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
@@ -3459,7 +3484,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="K18" s="66" t="s">
+        <v>191</v>
+      </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
